--- a/AO_uqubii.xlsx
+++ b/AO_uqubii.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Maqaa</t>
   </si>
@@ -47,13 +47,7 @@
     <t xml:space="preserve">Fayyisaa Badhuu </t>
   </si>
   <si>
-    <t>Girmaa Masqalaa</t>
-  </si>
-  <si>
     <t>Girmaa Qorichoo</t>
-  </si>
-  <si>
-    <t>Baqqalaa Tolasaa</t>
   </si>
   <si>
     <t>Hannaa Addunyaa</t>
@@ -381,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,7 +449,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>913354650</v>
+        <v>910814723</v>
       </c>
       <c r="C5">
         <v>5000</v>
@@ -469,7 +463,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>910814723</v>
+        <v>917372534</v>
       </c>
       <c r="C6">
         <v>5000</v>
@@ -483,40 +477,12 @@
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>928276274</v>
+        <v>954846351</v>
       </c>
       <c r="C7">
         <v>5000</v>
       </c>
       <c r="D7">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1">
-        <v>917372534</v>
-      </c>
-      <c r="C8">
-        <v>5000</v>
-      </c>
-      <c r="D8">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1">
-        <v>954846351</v>
-      </c>
-      <c r="C9">
-        <v>5000</v>
-      </c>
-      <c r="D9">
         <v>30000</v>
       </c>
     </row>

--- a/AO_uqubii.xlsx
+++ b/AO_uqubii.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Maqaa</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Lammii Diroo</t>
   </si>
   <si>
-    <t>Walfaanaa Magarsaa</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fayyisaa Badhuu </t>
   </si>
   <si>
@@ -51,9 +48,6 @@
   </si>
   <si>
     <t>Hannaa Addunyaa</t>
-  </si>
-  <si>
-    <t>Lalisee Magarsaa</t>
   </si>
 </sst>
 </file>
@@ -375,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,7 +415,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>912861288</v>
+        <v>977677737</v>
       </c>
       <c r="C3">
         <v>5000</v>
@@ -435,7 +429,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>977677737</v>
+        <v>910814723</v>
       </c>
       <c r="C4">
         <v>5000</v>
@@ -449,40 +443,12 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>910814723</v>
+        <v>917372534</v>
       </c>
       <c r="C5">
         <v>5000</v>
       </c>
       <c r="D5">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>917372534</v>
-      </c>
-      <c r="C6">
-        <v>5000</v>
-      </c>
-      <c r="D6">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>954846351</v>
-      </c>
-      <c r="C7">
-        <v>5000</v>
-      </c>
-      <c r="D7">
         <v>30000</v>
       </c>
     </row>
